--- a/000_2023年12月校园卡充值总表.xlsx
+++ b/000_2023年12月校园卡充值总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\校园卡充值\2023年12月校园卡充值表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D422FBDA-7ED4-42E2-BB66-5716550023AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113A15D-0006-418E-9F2C-05833089F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,13 +27,13 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="7" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1180">
   <si>
     <t>组织人事处</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3311,6 +3311,340 @@
   </si>
   <si>
     <t>003宣传处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭元刚</t>
+  </si>
+  <si>
+    <t>21天</t>
+  </si>
+  <si>
+    <t>王亚楠</t>
+  </si>
+  <si>
+    <t>高  婷</t>
+  </si>
+  <si>
+    <t>冯  琳</t>
+  </si>
+  <si>
+    <t>王军涛</t>
+  </si>
+  <si>
+    <t>周  芳</t>
+  </si>
+  <si>
+    <t>纪珊珊</t>
+  </si>
+  <si>
+    <t>王  杰</t>
+  </si>
+  <si>
+    <t>吴  冰</t>
+  </si>
+  <si>
+    <t>20天</t>
+  </si>
+  <si>
+    <t>产检一天</t>
+  </si>
+  <si>
+    <t>傅一卓</t>
+  </si>
+  <si>
+    <t>陈  歌</t>
+  </si>
+  <si>
+    <t>杨陶然</t>
+  </si>
+  <si>
+    <t>刘  达</t>
+  </si>
+  <si>
+    <t>潘春萌</t>
+  </si>
+  <si>
+    <t>王  超</t>
+  </si>
+  <si>
+    <t>教官上班增加30元/天，21*6+21*30</t>
+  </si>
+  <si>
+    <t>孟显勇</t>
+  </si>
+  <si>
+    <t>蓝帅帅</t>
+  </si>
+  <si>
+    <t>李启鹏</t>
+  </si>
+  <si>
+    <t>孟  浩</t>
+  </si>
+  <si>
+    <t>教官上班增加30元/天，20*6+20*30</t>
+  </si>
+  <si>
+    <t>牛兆阔</t>
+  </si>
+  <si>
+    <t>教官上班增加30元/天，20*6+21*30</t>
+  </si>
+  <si>
+    <t>侯天宇</t>
+  </si>
+  <si>
+    <t>吕一凡</t>
+  </si>
+  <si>
+    <t>周  毅</t>
+  </si>
+  <si>
+    <t>江吉臣</t>
+  </si>
+  <si>
+    <t>教官上班增加30元/天，20*6+19*30</t>
+  </si>
+  <si>
+    <t>孙基深</t>
+  </si>
+  <si>
+    <t>教官上班增加30元/天，20*6+16*30</t>
+  </si>
+  <si>
+    <t>车保俊</t>
+  </si>
+  <si>
+    <t>徐正臻</t>
+  </si>
+  <si>
+    <t>崔  洋</t>
+  </si>
+  <si>
+    <t>刘  亮</t>
+  </si>
+  <si>
+    <t>王鹏飞</t>
+  </si>
+  <si>
+    <t>吕良毅</t>
+  </si>
+  <si>
+    <t>陈鹏飞</t>
+  </si>
+  <si>
+    <t>张惠英</t>
+  </si>
+  <si>
+    <t>19天</t>
+  </si>
+  <si>
+    <t>教官上班增加30元/天，19*6+20*30</t>
+  </si>
+  <si>
+    <t>逄新凯</t>
+  </si>
+  <si>
+    <t>兰晨阳</t>
+  </si>
+  <si>
+    <t>徐  晨</t>
+  </si>
+  <si>
+    <t>张  浩</t>
+  </si>
+  <si>
+    <t>370212196806031712</t>
+  </si>
+  <si>
+    <t>徐立喜</t>
+  </si>
+  <si>
+    <t>假期值班4天，21*6+4*12</t>
+  </si>
+  <si>
+    <t>37021219671026321X</t>
+  </si>
+  <si>
+    <t>崔旭之</t>
+  </si>
+  <si>
+    <t>假期值班3天，21*6+3*12</t>
+  </si>
+  <si>
+    <t>37021219640731175X</t>
+  </si>
+  <si>
+    <t>于周汉</t>
+  </si>
+  <si>
+    <t>370923198302052839</t>
+  </si>
+  <si>
+    <t>胡克平</t>
+  </si>
+  <si>
+    <t>230832196602142319</t>
+  </si>
+  <si>
+    <t>张长胜</t>
+  </si>
+  <si>
+    <t>23102519620924091X</t>
+  </si>
+  <si>
+    <t>聂静波</t>
+  </si>
+  <si>
+    <t>230524196601102714</t>
+  </si>
+  <si>
+    <t>李  湘</t>
+  </si>
+  <si>
+    <t>370212196101134017</t>
+  </si>
+  <si>
+    <t>戚宝元</t>
+  </si>
+  <si>
+    <t>232325196506210212</t>
+  </si>
+  <si>
+    <t>姜庆海</t>
+  </si>
+  <si>
+    <t>370205196508149177</t>
+  </si>
+  <si>
+    <t>徐传茂</t>
+  </si>
+  <si>
+    <t>239005196304051078</t>
+  </si>
+  <si>
+    <t>纪明军</t>
+  </si>
+  <si>
+    <t>370282196211125716</t>
+  </si>
+  <si>
+    <t>张振先</t>
+  </si>
+  <si>
+    <t>370222196311260011</t>
+  </si>
+  <si>
+    <t>孟宪华</t>
+  </si>
+  <si>
+    <t>370212195902121510</t>
+  </si>
+  <si>
+    <t>鲁道娟</t>
+  </si>
+  <si>
+    <t>370212196307046055</t>
+  </si>
+  <si>
+    <t>周明信</t>
+  </si>
+  <si>
+    <t>370283198201010419</t>
+  </si>
+  <si>
+    <t>徐江涛</t>
+  </si>
+  <si>
+    <t>370212196009163413</t>
+  </si>
+  <si>
+    <t>王希春</t>
+  </si>
+  <si>
+    <t>370212196403071357</t>
+  </si>
+  <si>
+    <t>于慎明</t>
+  </si>
+  <si>
+    <t>370212196608105629</t>
+  </si>
+  <si>
+    <t>邱秀芳</t>
+  </si>
+  <si>
+    <t>372301196708213628</t>
+  </si>
+  <si>
+    <t>杨红梅</t>
+  </si>
+  <si>
+    <t>370212197108194842</t>
+  </si>
+  <si>
+    <t>乔玉萍</t>
+  </si>
+  <si>
+    <t>230303196410036010</t>
+  </si>
+  <si>
+    <t>王洪伟</t>
+  </si>
+  <si>
+    <t>370212195812096518</t>
+  </si>
+  <si>
+    <t>郑学彩</t>
+  </si>
+  <si>
+    <t>370282197003192695</t>
+  </si>
+  <si>
+    <t>李德文</t>
+  </si>
+  <si>
+    <t>370205197507250024</t>
+  </si>
+  <si>
+    <t>王欣琴</t>
+  </si>
+  <si>
+    <t>370212196901011744</t>
+  </si>
+  <si>
+    <t>匡转利</t>
+  </si>
+  <si>
+    <t>370212197012191823</t>
+  </si>
+  <si>
+    <t>匡水利</t>
+  </si>
+  <si>
+    <t>370212196610186026</t>
+  </si>
+  <si>
+    <t>赵风云</t>
+  </si>
+  <si>
+    <t>231027196811305045</t>
+  </si>
+  <si>
+    <t>孙桂珍</t>
+  </si>
+  <si>
+    <t>370212197207316024</t>
+  </si>
+  <si>
+    <t>温延秀</t>
+  </si>
+  <si>
+    <t>010学生工作处</t>
+  </si>
+  <si>
+    <t>010学生工作处</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3587,97 +3921,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{D0F47B4B-161A-4362-8AA5-C7EEE6FD6F25}"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <alignment horizontal="right" indent="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" indent="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" indent="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="仿宋"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="double">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="double">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <alignment horizontal="right" indent="1" readingOrder="0"/>
     </dxf>
@@ -4039,21 +4283,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="MyTableStyle">
     <tableStyle name="MyTableStyle" table="0" count="11" xr9:uid="{D725204E-135A-401A-874D-CB840B7114E9}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="totalRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="55"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="54"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="53"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="52"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="51"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="50"/>
-      <tableStyleElement type="pageFieldValues" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="40"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="39"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="38"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="37"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="36"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="35"/>
+      <tableStyleElement type="pageFieldValues" dxfId="34"/>
     </tableStyle>
     <tableStyle name="数据透视表样式 1" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="48"/>
-      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -4305,7 +4549,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="QB" refreshedDate="45299.355694212965" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="776" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="QB" refreshedDate="45299.388141550924" createdVersion="4" refreshedVersion="8" minRefreshableVersion="3" recordCount="776" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="databases"/>
   </cacheSource>
@@ -4323,7 +4567,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="天数" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="29"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="29"/>
     </cacheField>
     <cacheField name="实充金额" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="945"/>
@@ -4358,6 +4602,7 @@
         <s v="029蓝谷校区"/>
         <s v="022商学院"/>
         <s v="003宣传处"/>
+        <s v="010学生工作处"/>
         <m/>
         <s v="014智慧校园中心" u="1"/>
         <s v="025建筑工程学院" u="1"/>
@@ -4373,7 +4618,6 @@
         <s v="003宣传片" u="1"/>
         <s v="013科研处（质量管理办公室）处" u="1"/>
         <s v="003宣传处（技工教育政策研究室）" u="1"/>
-        <s v="010学生工作处" u="1"/>
         <s v="018智能电气技术学院" u="1"/>
         <s v="015工会" u="1"/>
         <s v="008教务处" u="1"/>
@@ -26275,18 +26519,18 @@
   </r>
   <r>
     <n v="751"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2019010096"/>
+    <s v="谭元刚"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26294,18 +26538,18 @@
   </r>
   <r>
     <n v="752"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="2"/>
+    <n v="2004010024"/>
+    <s v="王亚楠"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26313,18 +26557,18 @@
   </r>
   <r>
     <n v="753"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="3"/>
+    <n v="2010020007"/>
+    <s v="高  婷"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26332,18 +26576,18 @@
   </r>
   <r>
     <n v="754"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="4"/>
+    <n v="2015010024"/>
+    <s v="冯  琳"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26351,18 +26595,18 @@
   </r>
   <r>
     <n v="755"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="5"/>
+    <n v="2007030002"/>
+    <s v="王军涛"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26370,18 +26614,18 @@
   </r>
   <r>
     <n v="756"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="6"/>
+    <n v="2007030007"/>
+    <s v="周  芳"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26389,18 +26633,18 @@
   </r>
   <r>
     <n v="757"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="7"/>
+    <n v="2004000039"/>
+    <s v="纪珊珊"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26408,18 +26652,18 @@
   </r>
   <r>
     <n v="758"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="8"/>
+    <n v="2023010021"/>
+    <s v="王  杰"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26427,18 +26671,18 @@
   </r>
   <r>
     <n v="759"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="9"/>
+    <n v="2012010014"/>
+    <s v="吴  冰"/>
+    <s v="20天"/>
+    <n v="120"/>
+    <s v="产检一天"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="20"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="0"/>
+    <n v="120"/>
     <m/>
     <m/>
     <m/>
@@ -26446,18 +26690,18 @@
   </r>
   <r>
     <n v="760"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="10"/>
+    <n v="2019010152"/>
+    <s v="傅一卓"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26465,18 +26709,18 @@
   </r>
   <r>
     <n v="761"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="11"/>
+    <n v="2021010009"/>
+    <s v="陈  歌"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26484,18 +26728,18 @@
   </r>
   <r>
     <n v="762"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="12"/>
+    <n v="2020010075"/>
+    <s v="杨陶然"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26503,18 +26747,18 @@
   </r>
   <r>
     <n v="763"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="13"/>
+    <n v="2020010081"/>
+    <s v="刘  达"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26522,18 +26766,18 @@
   </r>
   <r>
     <n v="764"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="14"/>
+    <n v="2021010095"/>
+    <s v="潘春萌"/>
+    <s v="21天"/>
+    <n v="126"/>
     <m/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="0"/>
+    <n v="126"/>
     <m/>
     <m/>
     <m/>
@@ -26541,18 +26785,18 @@
   </r>
   <r>
     <n v="765"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="15"/>
+    <n v="2021020007"/>
+    <s v="王  超"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26560,18 +26804,18 @@
   </r>
   <r>
     <n v="766"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="16"/>
+    <n v="2021020008"/>
+    <s v="孟显勇"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26579,18 +26823,18 @@
   </r>
   <r>
     <n v="767"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="17"/>
+    <n v="2021020012"/>
+    <s v="蓝帅帅"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26598,18 +26842,18 @@
   </r>
   <r>
     <n v="768"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="18"/>
+    <n v="2021020013"/>
+    <s v="李启鹏"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26617,18 +26861,18 @@
   </r>
   <r>
     <n v="769"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="19"/>
+    <n v="2023020002"/>
+    <s v="孟  浩"/>
+    <s v="20天"/>
+    <n v="720"/>
+    <s v="教官上班增加30元/天，20*6+20*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="20"/>
+    <n v="720"/>
+    <n v="120"/>
+    <n v="-600"/>
+    <n v="720"/>
     <m/>
     <m/>
     <m/>
@@ -26636,18 +26880,18 @@
   </r>
   <r>
     <n v="770"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="20"/>
+    <n v="2023020003"/>
+    <s v="牛兆阔"/>
+    <s v="21天"/>
+    <n v="750"/>
+    <s v="教官上班增加30元/天，20*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="750"/>
+    <n v="126"/>
+    <n v="-624"/>
+    <n v="750"/>
     <m/>
     <m/>
     <m/>
@@ -26655,18 +26899,18 @@
   </r>
   <r>
     <n v="771"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="21"/>
+    <n v="2023020005"/>
+    <s v="侯天宇"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26674,18 +26918,18 @@
   </r>
   <r>
     <n v="772"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="21"/>
+    <n v="2023020006"/>
+    <s v="吕一凡"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26693,18 +26937,18 @@
   </r>
   <r>
     <n v="773"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="23"/>
+    <n v="2023020007"/>
+    <s v="周  毅"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26712,18 +26956,18 @@
   </r>
   <r>
     <n v="774"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="24"/>
+    <n v="2023020008"/>
+    <s v="江吉臣"/>
+    <s v="20天"/>
+    <n v="690"/>
+    <s v="教官上班增加30元/天，20*6+19*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="20"/>
+    <n v="690"/>
+    <n v="120"/>
+    <n v="-570"/>
+    <n v="690"/>
     <m/>
     <m/>
     <m/>
@@ -26731,18 +26975,18 @@
   </r>
   <r>
     <n v="775"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="25"/>
+    <n v="2023020009"/>
+    <s v="孙基深"/>
+    <s v="20天"/>
+    <n v="600"/>
+    <s v="教官上班增加30元/天，20*6+16*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="20"/>
+    <n v="600"/>
+    <n v="120"/>
+    <n v="-480"/>
+    <n v="600"/>
     <m/>
     <m/>
     <m/>
@@ -26750,18 +26994,18 @@
   </r>
   <r>
     <n v="776"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="26"/>
+    <n v="2023020010"/>
+    <s v="车保俊"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26769,18 +27013,18 @@
   </r>
   <r>
     <n v="777"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="27"/>
+    <n v="2023020013"/>
+    <s v="徐正臻"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26788,18 +27032,18 @@
   </r>
   <r>
     <n v="778"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="28"/>
+    <n v="2023020015"/>
+    <s v="崔  洋"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26807,18 +27051,18 @@
   </r>
   <r>
     <n v="779"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="29"/>
+    <n v="2023020016"/>
+    <s v="刘  亮"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26826,18 +27070,18 @@
   </r>
   <r>
     <n v="780"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="30"/>
+    <n v="2023020018"/>
+    <s v="王鹏飞"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26845,18 +27089,18 @@
   </r>
   <r>
     <n v="781"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="31"/>
+    <n v="2023020019"/>
+    <s v="吕良毅"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26864,18 +27108,18 @@
   </r>
   <r>
     <n v="782"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="32"/>
+    <n v="2023020020"/>
+    <s v="陈鹏飞"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26883,18 +27127,18 @@
   </r>
   <r>
     <n v="783"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="33"/>
+    <n v="2023020021"/>
+    <s v="张惠英"/>
+    <s v="19天"/>
+    <n v="714"/>
+    <s v="教官上班增加30元/天，19*6+20*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="19"/>
+    <n v="714"/>
+    <n v="114"/>
+    <n v="-600"/>
+    <n v="714"/>
     <m/>
     <m/>
     <m/>
@@ -26902,18 +27146,18 @@
   </r>
   <r>
     <n v="784"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="34"/>
+    <n v="2023020023"/>
+    <s v="逄新凯"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26921,18 +27165,18 @@
   </r>
   <r>
     <n v="785"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="35"/>
+    <n v="2023020025"/>
+    <s v="兰晨阳"/>
+    <s v="21天"/>
+    <n v="756"/>
+    <s v="教官上班增加30元/天，21*6+21*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="756"/>
+    <n v="126"/>
+    <n v="-630"/>
+    <n v="756"/>
     <m/>
     <m/>
     <m/>
@@ -26940,18 +27184,18 @@
   </r>
   <r>
     <n v="786"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="36"/>
+    <n v="2023020026"/>
+    <s v="徐  晨"/>
+    <s v="20天"/>
+    <n v="690"/>
+    <s v="教官上班增加30元/天，20*6+19*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="20"/>
+    <n v="690"/>
+    <n v="120"/>
+    <n v="-570"/>
+    <n v="690"/>
     <m/>
     <m/>
     <m/>
@@ -26959,18 +27203,18 @@
   </r>
   <r>
     <n v="787"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="37"/>
+    <n v="2023020027"/>
+    <s v="张  浩"/>
+    <s v="20天"/>
+    <n v="690"/>
+    <s v="教官上班增加30元/天，20*6+19*30"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="20"/>
+    <n v="690"/>
+    <n v="120"/>
+    <n v="-570"/>
+    <n v="690"/>
     <m/>
     <m/>
     <m/>
@@ -26978,18 +27222,18 @@
   </r>
   <r>
     <n v="788"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="38"/>
+    <s v="370212196806031712"/>
+    <s v="徐立喜"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -26997,18 +27241,18 @@
   </r>
   <r>
     <n v="789"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="39"/>
+    <s v="37021219671026321X"/>
+    <s v="崔旭之"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27016,18 +27260,18 @@
   </r>
   <r>
     <n v="790"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="40"/>
+    <s v="37021219640731175X"/>
+    <s v="于周汉"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27035,18 +27279,18 @@
   </r>
   <r>
     <n v="791"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="41"/>
+    <s v="370923198302052839"/>
+    <s v="胡克平"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27054,18 +27298,18 @@
   </r>
   <r>
     <n v="792"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="42"/>
+    <s v="230832196602142319"/>
+    <s v="张长胜"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27073,18 +27317,18 @@
   </r>
   <r>
     <n v="793"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="43"/>
+    <s v="23102519620924091X"/>
+    <s v="聂静波"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27092,18 +27336,18 @@
   </r>
   <r>
     <n v="794"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="44"/>
+    <s v="230524196601102714"/>
+    <s v="李  湘"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27111,18 +27355,18 @@
   </r>
   <r>
     <n v="795"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="45"/>
+    <s v="370212196101134017"/>
+    <s v="戚宝元"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27130,18 +27374,18 @@
   </r>
   <r>
     <n v="796"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="46"/>
+    <s v="232325196506210212"/>
+    <s v="姜庆海"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27149,18 +27393,18 @@
   </r>
   <r>
     <n v="797"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="47"/>
+    <s v="370205196508149177"/>
+    <s v="徐传茂"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27168,18 +27412,18 @@
   </r>
   <r>
     <n v="798"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="48"/>
+    <s v="239005196304051078"/>
+    <s v="纪明军"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27187,18 +27431,18 @@
   </r>
   <r>
     <n v="799"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="49"/>
+    <s v="370282196211125716"/>
+    <s v="张振先"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27206,18 +27450,18 @@
   </r>
   <r>
     <n v="800"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="50"/>
+    <s v="370222196311260011"/>
+    <s v="孟宪华"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27225,18 +27469,18 @@
   </r>
   <r>
     <n v="801"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="51"/>
+    <s v="370212195902121510"/>
+    <s v="鲁道娟"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27244,18 +27488,18 @@
   </r>
   <r>
     <n v="802"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="52"/>
+    <s v="370212196307046055"/>
+    <s v="周明信"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27263,18 +27507,18 @@
   </r>
   <r>
     <n v="803"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="53"/>
+    <s v="370283198201010419"/>
+    <s v="徐江涛"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27282,18 +27526,18 @@
   </r>
   <r>
     <n v="804"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="54"/>
+    <s v="370212196009163413"/>
+    <s v="王希春"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27301,18 +27545,18 @@
   </r>
   <r>
     <n v="805"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="55"/>
+    <s v="370212196403071357"/>
+    <s v="于慎明"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27320,18 +27564,18 @@
   </r>
   <r>
     <n v="806"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="56"/>
+    <s v="370212196608105629"/>
+    <s v="邱秀芳"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27339,18 +27583,18 @@
   </r>
   <r>
     <n v="807"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="57"/>
+    <s v="372301196708213628"/>
+    <s v="杨红梅"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27358,18 +27602,18 @@
   </r>
   <r>
     <n v="808"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="58"/>
+    <s v="370212197108194842"/>
+    <s v="乔玉萍"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27377,18 +27621,18 @@
   </r>
   <r>
     <n v="809"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="59"/>
+    <s v="230303196410036010"/>
+    <s v="王洪伟"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27396,18 +27640,18 @@
   </r>
   <r>
     <n v="810"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="60"/>
+    <s v="370212195812096518"/>
+    <s v="郑学彩"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27415,18 +27659,18 @@
   </r>
   <r>
     <n v="811"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="61"/>
+    <s v="370282197003192695"/>
+    <s v="李德文"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27434,18 +27678,18 @@
   </r>
   <r>
     <n v="812"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="62"/>
+    <s v="370205197507250024"/>
+    <s v="王欣琴"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27453,18 +27697,18 @@
   </r>
   <r>
     <n v="813"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="63"/>
+    <s v="370212196901011744"/>
+    <s v="匡转利"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27472,18 +27716,18 @@
   </r>
   <r>
     <n v="814"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="64"/>
+    <s v="370212197012191823"/>
+    <s v="匡水利"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27491,18 +27735,18 @@
   </r>
   <r>
     <n v="815"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="65"/>
+    <s v="370212196610186026"/>
+    <s v="赵风云"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27510,18 +27754,18 @@
   </r>
   <r>
     <n v="816"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="66"/>
+    <s v="231027196811305045"/>
+    <s v="孙桂珍"/>
+    <s v="21天"/>
+    <n v="168"/>
+    <s v="假期值班3天，21*6+3*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="168"/>
+    <n v="126"/>
+    <n v="-42"/>
+    <n v="168"/>
     <m/>
     <m/>
     <m/>
@@ -27529,18 +27773,18 @@
   </r>
   <r>
     <n v="817"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="67"/>
+    <s v="370212197207316024"/>
+    <s v="温延秀"/>
+    <s v="21天"/>
+    <n v="180"/>
+    <s v="假期值班4天，21*6+4*12"/>
     <x v="25"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <n v="21"/>
+    <n v="180"/>
+    <n v="126"/>
+    <n v="-54"/>
+    <n v="180"/>
     <m/>
     <m/>
     <m/>
@@ -27554,7 +27798,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27573,7 +27817,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27592,7 +27836,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27611,7 +27855,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27630,7 +27874,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27649,7 +27893,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27668,7 +27912,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27687,7 +27931,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27706,7 +27950,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27725,7 +27969,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27744,7 +27988,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27763,7 +28007,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27782,7 +28026,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27801,7 +28045,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27820,7 +28064,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27839,7 +28083,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27858,7 +28102,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27877,7 +28121,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27896,7 +28140,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27915,7 +28159,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27934,7 +28178,7 @@
     <m/>
     <m/>
     <m/>
-    <x v="25"/>
+    <x v="26"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -27949,8 +28193,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="数据透视表1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="部门名称">
-  <location ref="B5:D32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="部门名称">
+  <location ref="B5:D33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -27964,9 +28208,9 @@
         <item x="0"/>
         <item x="1"/>
         <item x="24"/>
-        <item m="1" x="39"/>
+        <item m="1" x="40"/>
         <item m="1" x="44"/>
-        <item m="1" x="37"/>
+        <item m="1" x="38"/>
         <item x="2"/>
         <item x="3"/>
         <item m="1" x="50"/>
@@ -27978,32 +28222,32 @@
         <item m="1" x="43"/>
         <item x="7"/>
         <item m="1" x="55"/>
-        <item m="1" x="31"/>
+        <item m="1" x="32"/>
         <item m="1" x="67"/>
-        <item m="1" x="29"/>
-        <item m="1" x="40"/>
+        <item m="1" x="30"/>
+        <item x="25"/>
         <item m="1" x="63"/>
-        <item m="1" x="36"/>
+        <item m="1" x="37"/>
         <item m="1" x="68"/>
         <item x="8"/>
         <item m="1" x="60"/>
         <item m="1" x="53"/>
         <item x="9"/>
         <item m="1" x="62"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
-        <item m="1" x="38"/>
+        <item m="1" x="31"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
         <item x="10"/>
         <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item x="11"/>
-        <item m="1" x="26"/>
+        <item m="1" x="27"/>
         <item m="1" x="42"/>
         <item x="12"/>
         <item x="13"/>
         <item m="1" x="66"/>
         <item m="1" x="57"/>
-        <item m="1" x="35"/>
+        <item m="1" x="36"/>
         <item x="14"/>
         <item m="1" x="48"/>
         <item m="1" x="41"/>
@@ -28020,20 +28264,20 @@
         <item x="18"/>
         <item m="1" x="59"/>
         <item x="19"/>
-        <item m="1" x="27"/>
+        <item m="1" x="28"/>
         <item m="1" x="65"/>
         <item x="20"/>
-        <item m="1" x="33"/>
+        <item m="1" x="34"/>
         <item x="21"/>
         <item x="22"/>
-        <item m="1" x="28"/>
-        <item m="1" x="34"/>
+        <item m="1" x="29"/>
+        <item m="1" x="35"/>
         <item m="1" x="61"/>
         <item m="1" x="52"/>
         <item m="1" x="64"/>
         <item m="1" x="71"/>
         <item m="1" x="54"/>
-        <item x="25"/>
+        <item x="26"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -28050,7 +28294,7 @@
   <rowFields count="1">
     <field x="7"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="28">
     <i>
       <x/>
     </i>
@@ -28077,6 +28321,9 @@
     </i>
     <i>
       <x v="15"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="24"/>
@@ -28149,7 +28396,7 @@
     <dataField name="充值金额汇总（元）" fld="12" baseField="7" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="46">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -28158,10 +28405,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="30">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -28171,10 +28418,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="28">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -28183,19 +28430,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="25">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="23">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -28205,7 +28452,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -28214,10 +28461,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="20">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -28227,10 +28474,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="18">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -28681,8 +28928,8 @@
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28904,13 +29151,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>988</v>
+        <v>1178</v>
       </c>
       <c r="C15" s="34">
-        <v>168</v>
+        <v>1399</v>
       </c>
       <c r="D15" s="14">
-        <v>1008</v>
+        <v>23868</v>
       </c>
       <c r="E15" s="4"/>
     </row>
@@ -28920,13 +29167,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C16" s="34">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="D16" s="14">
-        <v>1890</v>
+        <v>1008</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -28936,13 +29183,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C17" s="34">
-        <v>124</v>
+        <v>315</v>
       </c>
       <c r="D17" s="14">
-        <v>744</v>
+        <v>1890</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -28952,13 +29199,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C18" s="34">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D18" s="14">
-        <v>618</v>
+        <v>744</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -28968,13 +29215,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C19" s="34">
-        <v>357</v>
+        <v>103</v>
       </c>
       <c r="D19" s="14">
-        <v>2142</v>
+        <v>618</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -28984,13 +29231,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C20" s="34">
-        <v>147</v>
+        <v>357</v>
       </c>
       <c r="D20" s="14">
-        <v>882</v>
+        <v>2142</v>
       </c>
       <c r="E20" s="4"/>
     </row>
@@ -29000,13 +29247,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C21" s="34">
-        <v>2475</v>
+        <v>147</v>
       </c>
       <c r="D21" s="14">
-        <v>14850</v>
+        <v>882</v>
       </c>
       <c r="E21" s="4"/>
     </row>
@@ -29016,13 +29263,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>610</v>
+        <v>994</v>
       </c>
       <c r="C22" s="34">
-        <v>1078</v>
+        <v>2475</v>
       </c>
       <c r="D22" s="14">
-        <v>6468</v>
+        <v>14850</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -29032,13 +29279,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>659</v>
+        <v>610</v>
       </c>
       <c r="C23" s="34">
-        <v>848</v>
+        <v>1078</v>
       </c>
       <c r="D23" s="14">
-        <v>5088</v>
+        <v>6468</v>
       </c>
       <c r="E23" s="4"/>
     </row>
@@ -29048,13 +29295,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>704</v>
+        <v>659</v>
       </c>
       <c r="C24" s="34">
-        <v>836</v>
+        <v>848</v>
       </c>
       <c r="D24" s="14">
-        <v>5016</v>
+        <v>5088</v>
       </c>
       <c r="E24" s="4"/>
     </row>
@@ -29064,13 +29311,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1058</v>
+        <v>704</v>
       </c>
       <c r="C25" s="34">
-        <v>609</v>
+        <v>836</v>
       </c>
       <c r="D25" s="14">
-        <v>3654</v>
+        <v>5016</v>
       </c>
       <c r="E25" s="4"/>
     </row>
@@ -29080,13 +29327,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>782</v>
+        <v>1058</v>
       </c>
       <c r="C26" s="34">
-        <v>1124</v>
+        <v>609</v>
       </c>
       <c r="D26" s="14">
-        <v>6744</v>
+        <v>3654</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -29096,13 +29343,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>848</v>
+        <v>782</v>
       </c>
       <c r="C27" s="34">
-        <v>828</v>
+        <v>1124</v>
       </c>
       <c r="D27" s="14">
-        <v>6390</v>
+        <v>6744</v>
       </c>
       <c r="E27" s="4"/>
     </row>
@@ -29112,13 +29359,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>878</v>
+        <v>848</v>
       </c>
       <c r="C28" s="34">
-        <v>511</v>
+        <v>828</v>
       </c>
       <c r="D28" s="14">
-        <v>3066</v>
+        <v>6390</v>
       </c>
       <c r="E28" s="4"/>
     </row>
@@ -29128,13 +29375,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="C29" s="34">
-        <v>768</v>
+        <v>511</v>
       </c>
       <c r="D29" s="14">
-        <v>4608</v>
+        <v>3066</v>
       </c>
       <c r="E29" s="4"/>
     </row>
@@ -29144,45 +29391,45 @@
         <v>25</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>980</v>
+        <v>924</v>
       </c>
       <c r="C30" s="34">
-        <v>774.5</v>
+        <v>768</v>
       </c>
       <c r="D30" s="14">
-        <v>13117.5</v>
+        <v>4608</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <f>SUBTOTAL(3,B$5:B30)</f>
         <v>26</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>83</v>
+        <v>980</v>
       </c>
       <c r="C31" s="34">
-        <v>0</v>
+        <v>774.5</v>
       </c>
       <c r="D31" s="14">
-        <v>0</v>
+        <v>13117.5</v>
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f>SUBTOTAL(3,B$5:B31)</f>
         <v>27</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="35">
-        <v>13301.5</v>
-      </c>
-      <c r="D32" s="24">
-        <v>89707.5</v>
+      <c r="B32" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="34">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
       </c>
       <c r="E32" s="4"/>
     </row>
@@ -29190,7 +29437,15 @@
       <c r="A33" s="20">
         <v>28</v>
       </c>
-      <c r="C33"/>
+      <c r="B33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="35">
+        <v>14700.5</v>
+      </c>
+      <c r="D33" s="24">
+        <v>113575.5</v>
+      </c>
       <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="27" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -29210,11 +29465,11 @@
       </c>
       <c r="C36" s="30">
         <f>GETPIVOTDATA("工作天数汇总（天）",$B$5)</f>
-        <v>13301.5</v>
+        <v>14700.5</v>
       </c>
       <c r="D36" s="31">
         <f>GETPIVOTDATA("充值金额汇总（元）",$B$5)</f>
-        <v>89707.5</v>
+        <v>113575.5</v>
       </c>
       <c r="E36" s="22"/>
     </row>
@@ -29254,7 +29509,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A6:B32 E6:E32">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29271,10 +29526,10 @@
   <dimension ref="A1:Q777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E665" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E741" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H682" sqref="H682:H689"/>
+      <selection pane="bottomRight" activeCell="H690" sqref="H690:H756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -63236,24 +63491,36 @@
       <c r="A690" s="17">
         <v>751</v>
       </c>
-      <c r="B690" s="17"/>
-      <c r="C690" s="17"/>
-      <c r="D690" s="17"/>
-      <c r="E690" s="17"/>
-      <c r="F690" s="17"/>
+      <c r="B690" s="17">
+        <v>1</v>
+      </c>
+      <c r="C690" s="17">
+        <v>2019010096</v>
+      </c>
+      <c r="D690" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E690" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F690" s="17">
+        <v>126</v>
+      </c>
       <c r="G690" s="17"/>
-      <c r="H690" s="17"/>
+      <c r="H690" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I690" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J690" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K690" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L690" s="17">
         <f t="shared" si="72"/>
@@ -63261,7 +63528,7 @@
       </c>
       <c r="M690" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N690" s="17"/>
       <c r="O690" s="17"/>
@@ -63272,24 +63539,36 @@
       <c r="A691" s="17">
         <v>752</v>
       </c>
-      <c r="B691" s="17"/>
-      <c r="C691" s="17"/>
-      <c r="D691" s="17"/>
-      <c r="E691" s="17"/>
-      <c r="F691" s="17"/>
+      <c r="B691" s="17">
+        <v>2</v>
+      </c>
+      <c r="C691" s="17">
+        <v>2004010024</v>
+      </c>
+      <c r="D691" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E691" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F691" s="17">
+        <v>126</v>
+      </c>
       <c r="G691" s="17"/>
-      <c r="H691" s="17"/>
+      <c r="H691" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I691" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J691" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K691" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L691" s="17">
         <f t="shared" si="72"/>
@@ -63297,7 +63576,7 @@
       </c>
       <c r="M691" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N691" s="17"/>
       <c r="O691" s="17"/>
@@ -63308,24 +63587,36 @@
       <c r="A692" s="17">
         <v>753</v>
       </c>
-      <c r="B692" s="17"/>
-      <c r="C692" s="17"/>
-      <c r="D692" s="17"/>
-      <c r="E692" s="17"/>
-      <c r="F692" s="17"/>
+      <c r="B692" s="17">
+        <v>3</v>
+      </c>
+      <c r="C692" s="17">
+        <v>2010020007</v>
+      </c>
+      <c r="D692" s="17" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E692" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F692" s="17">
+        <v>126</v>
+      </c>
       <c r="G692" s="17"/>
-      <c r="H692" s="17"/>
+      <c r="H692" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I692" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J692" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K692" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L692" s="17">
         <f t="shared" si="72"/>
@@ -63333,7 +63624,7 @@
       </c>
       <c r="M692" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N692" s="17"/>
       <c r="O692" s="17"/>
@@ -63344,24 +63635,36 @@
       <c r="A693" s="17">
         <v>754</v>
       </c>
-      <c r="B693" s="17"/>
-      <c r="C693" s="17"/>
-      <c r="D693" s="17"/>
-      <c r="E693" s="17"/>
-      <c r="F693" s="17"/>
+      <c r="B693" s="17">
+        <v>4</v>
+      </c>
+      <c r="C693" s="17">
+        <v>2015010024</v>
+      </c>
+      <c r="D693" s="17" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E693" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F693" s="17">
+        <v>126</v>
+      </c>
       <c r="G693" s="17"/>
-      <c r="H693" s="17"/>
+      <c r="H693" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I693" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J693" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K693" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L693" s="17">
         <f t="shared" si="72"/>
@@ -63369,7 +63672,7 @@
       </c>
       <c r="M693" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N693" s="17"/>
       <c r="O693" s="17"/>
@@ -63380,24 +63683,36 @@
       <c r="A694" s="17">
         <v>755</v>
       </c>
-      <c r="B694" s="17"/>
-      <c r="C694" s="17"/>
-      <c r="D694" s="17"/>
-      <c r="E694" s="17"/>
-      <c r="F694" s="17"/>
+      <c r="B694" s="17">
+        <v>5</v>
+      </c>
+      <c r="C694" s="17">
+        <v>2007030002</v>
+      </c>
+      <c r="D694" s="17" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E694" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F694" s="17">
+        <v>126</v>
+      </c>
       <c r="G694" s="17"/>
-      <c r="H694" s="17"/>
+      <c r="H694" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I694" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J694" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K694" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L694" s="17">
         <f t="shared" si="72"/>
@@ -63405,7 +63720,7 @@
       </c>
       <c r="M694" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N694" s="17"/>
       <c r="O694" s="17"/>
@@ -63416,24 +63731,36 @@
       <c r="A695" s="17">
         <v>756</v>
       </c>
-      <c r="B695" s="17"/>
-      <c r="C695" s="17"/>
-      <c r="D695" s="17"/>
-      <c r="E695" s="17"/>
-      <c r="F695" s="17"/>
+      <c r="B695" s="17">
+        <v>6</v>
+      </c>
+      <c r="C695" s="17">
+        <v>2007030007</v>
+      </c>
+      <c r="D695" s="17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E695" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F695" s="17">
+        <v>126</v>
+      </c>
       <c r="G695" s="17"/>
-      <c r="H695" s="17"/>
+      <c r="H695" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I695" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J695" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K695" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L695" s="17">
         <f t="shared" si="72"/>
@@ -63441,7 +63768,7 @@
       </c>
       <c r="M695" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N695" s="17"/>
       <c r="O695" s="17"/>
@@ -63452,24 +63779,36 @@
       <c r="A696" s="17">
         <v>757</v>
       </c>
-      <c r="B696" s="17"/>
-      <c r="C696" s="17"/>
-      <c r="D696" s="17"/>
-      <c r="E696" s="17"/>
-      <c r="F696" s="17"/>
+      <c r="B696" s="17">
+        <v>7</v>
+      </c>
+      <c r="C696" s="17">
+        <v>2004000039</v>
+      </c>
+      <c r="D696" s="17" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E696" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F696" s="17">
+        <v>126</v>
+      </c>
       <c r="G696" s="17"/>
-      <c r="H696" s="17"/>
+      <c r="H696" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I696" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J696" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K696" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L696" s="17">
         <f t="shared" si="72"/>
@@ -63477,7 +63816,7 @@
       </c>
       <c r="M696" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N696" s="17"/>
       <c r="O696" s="17"/>
@@ -63488,24 +63827,36 @@
       <c r="A697" s="17">
         <v>758</v>
       </c>
-      <c r="B697" s="17"/>
-      <c r="C697" s="17"/>
-      <c r="D697" s="17"/>
-      <c r="E697" s="17"/>
-      <c r="F697" s="17"/>
+      <c r="B697" s="17">
+        <v>8</v>
+      </c>
+      <c r="C697" s="17">
+        <v>2023010021</v>
+      </c>
+      <c r="D697" s="17" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E697" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F697" s="17">
+        <v>126</v>
+      </c>
       <c r="G697" s="17"/>
-      <c r="H697" s="17"/>
+      <c r="H697" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I697" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J697" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K697" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L697" s="17">
         <f t="shared" si="72"/>
@@ -63513,7 +63864,7 @@
       </c>
       <c r="M697" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N697" s="17"/>
       <c r="O697" s="17"/>
@@ -63524,24 +63875,38 @@
       <c r="A698" s="17">
         <v>759</v>
       </c>
-      <c r="B698" s="17"/>
-      <c r="C698" s="17"/>
-      <c r="D698" s="17"/>
-      <c r="E698" s="17"/>
-      <c r="F698" s="17"/>
-      <c r="G698" s="17"/>
-      <c r="H698" s="17"/>
+      <c r="B698" s="17">
+        <v>9</v>
+      </c>
+      <c r="C698" s="17">
+        <v>2012010014</v>
+      </c>
+      <c r="D698" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E698" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F698" s="17">
+        <v>120</v>
+      </c>
+      <c r="G698" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H698" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I698" s="17">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J698" s="17">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K698" s="17">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L698" s="17">
         <f t="shared" si="72"/>
@@ -63549,7 +63914,7 @@
       </c>
       <c r="M698" s="17">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N698" s="17"/>
       <c r="O698" s="17"/>
@@ -63560,24 +63925,36 @@
       <c r="A699" s="17">
         <v>760</v>
       </c>
-      <c r="B699" s="17"/>
-      <c r="C699" s="17"/>
-      <c r="D699" s="17"/>
-      <c r="E699" s="17"/>
-      <c r="F699" s="17"/>
+      <c r="B699" s="17">
+        <v>10</v>
+      </c>
+      <c r="C699" s="17">
+        <v>2019010152</v>
+      </c>
+      <c r="D699" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E699" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F699" s="17">
+        <v>126</v>
+      </c>
       <c r="G699" s="17"/>
-      <c r="H699" s="17"/>
+      <c r="H699" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I699" s="17">
         <f t="shared" ref="I699:I710" si="74">IF(TYPE(E699)=1,E699,VALUE(SUBSTITUTE(E699,"天","")))</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J699" s="17">
         <f t="shared" ref="J699:J710" si="75">IF(TYPE(F699)=1,F699,VALUE(SUBSTITUTE(F699,"元","")))</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K699" s="17">
         <f t="shared" ref="K699:K710" si="76">I699*6</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L699" s="17">
         <f t="shared" ref="L699:L710" si="77">K699-J699</f>
@@ -63585,7 +63962,7 @@
       </c>
       <c r="M699" s="17">
         <f t="shared" ref="M699:M710" si="78">J699</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N699" s="17"/>
       <c r="O699" s="17"/>
@@ -63596,24 +63973,36 @@
       <c r="A700" s="17">
         <v>761</v>
       </c>
-      <c r="B700" s="17"/>
-      <c r="C700" s="17"/>
-      <c r="D700" s="17"/>
-      <c r="E700" s="17"/>
-      <c r="F700" s="17"/>
+      <c r="B700" s="17">
+        <v>11</v>
+      </c>
+      <c r="C700" s="17">
+        <v>2021010009</v>
+      </c>
+      <c r="D700" s="17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E700" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F700" s="17">
+        <v>126</v>
+      </c>
       <c r="G700" s="17"/>
-      <c r="H700" s="17"/>
+      <c r="H700" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I700" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J700" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K700" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L700" s="17">
         <f t="shared" si="77"/>
@@ -63621,7 +64010,7 @@
       </c>
       <c r="M700" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N700" s="17"/>
       <c r="O700" s="17"/>
@@ -63632,24 +64021,36 @@
       <c r="A701" s="17">
         <v>762</v>
       </c>
-      <c r="B701" s="17"/>
-      <c r="C701" s="17"/>
-      <c r="D701" s="17"/>
-      <c r="E701" s="17"/>
-      <c r="F701" s="17"/>
+      <c r="B701" s="17">
+        <v>12</v>
+      </c>
+      <c r="C701" s="17">
+        <v>2020010075</v>
+      </c>
+      <c r="D701" s="17" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E701" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F701" s="17">
+        <v>126</v>
+      </c>
       <c r="G701" s="17"/>
-      <c r="H701" s="17"/>
+      <c r="H701" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I701" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J701" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K701" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L701" s="17">
         <f t="shared" si="77"/>
@@ -63657,7 +64058,7 @@
       </c>
       <c r="M701" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N701" s="17"/>
       <c r="O701" s="17"/>
@@ -63668,24 +64069,36 @@
       <c r="A702" s="17">
         <v>763</v>
       </c>
-      <c r="B702" s="17"/>
-      <c r="C702" s="17"/>
-      <c r="D702" s="17"/>
-      <c r="E702" s="17"/>
-      <c r="F702" s="17"/>
+      <c r="B702" s="17">
+        <v>13</v>
+      </c>
+      <c r="C702" s="17">
+        <v>2020010081</v>
+      </c>
+      <c r="D702" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E702" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F702" s="17">
+        <v>126</v>
+      </c>
       <c r="G702" s="17"/>
-      <c r="H702" s="17"/>
+      <c r="H702" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I702" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J702" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K702" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L702" s="17">
         <f t="shared" si="77"/>
@@ -63693,7 +64106,7 @@
       </c>
       <c r="M702" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N702" s="17"/>
       <c r="O702" s="17"/>
@@ -63704,24 +64117,36 @@
       <c r="A703" s="17">
         <v>764</v>
       </c>
-      <c r="B703" s="17"/>
-      <c r="C703" s="17"/>
-      <c r="D703" s="17"/>
-      <c r="E703" s="17"/>
-      <c r="F703" s="17"/>
+      <c r="B703" s="17">
+        <v>14</v>
+      </c>
+      <c r="C703" s="17">
+        <v>2021010095</v>
+      </c>
+      <c r="D703" s="17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E703" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F703" s="17">
+        <v>126</v>
+      </c>
       <c r="G703" s="17"/>
-      <c r="H703" s="17"/>
+      <c r="H703" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I703" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J703" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="K703" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L703" s="17">
         <f t="shared" si="77"/>
@@ -63729,7 +64154,7 @@
       </c>
       <c r="M703" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="N703" s="17"/>
       <c r="O703" s="17"/>
@@ -63740,32 +64165,46 @@
       <c r="A704" s="17">
         <v>765</v>
       </c>
-      <c r="B704" s="17"/>
-      <c r="C704" s="17"/>
-      <c r="D704" s="17"/>
-      <c r="E704" s="17"/>
-      <c r="F704" s="17"/>
-      <c r="G704" s="17"/>
-      <c r="H704" s="17"/>
+      <c r="B704" s="17">
+        <v>15</v>
+      </c>
+      <c r="C704" s="17">
+        <v>2021020007</v>
+      </c>
+      <c r="D704" s="17" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E704" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F704" s="17">
+        <v>756</v>
+      </c>
+      <c r="G704" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H704" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I704" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J704" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K704" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L704" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M704" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N704" s="17"/>
       <c r="O704" s="17"/>
@@ -63776,32 +64215,46 @@
       <c r="A705" s="17">
         <v>766</v>
       </c>
-      <c r="B705" s="17"/>
-      <c r="C705" s="17"/>
-      <c r="D705" s="17"/>
-      <c r="E705" s="17"/>
-      <c r="F705" s="17"/>
-      <c r="G705" s="17"/>
-      <c r="H705" s="17"/>
+      <c r="B705" s="17">
+        <v>16</v>
+      </c>
+      <c r="C705" s="17">
+        <v>2021020008</v>
+      </c>
+      <c r="D705" s="17" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E705" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F705" s="17">
+        <v>756</v>
+      </c>
+      <c r="G705" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H705" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I705" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J705" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K705" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L705" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M705" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N705" s="17"/>
       <c r="O705" s="17"/>
@@ -63812,32 +64265,46 @@
       <c r="A706" s="17">
         <v>767</v>
       </c>
-      <c r="B706" s="17"/>
-      <c r="C706" s="17"/>
-      <c r="D706" s="17"/>
-      <c r="E706" s="17"/>
-      <c r="F706" s="17"/>
-      <c r="G706" s="17"/>
-      <c r="H706" s="17"/>
+      <c r="B706" s="17">
+        <v>17</v>
+      </c>
+      <c r="C706" s="17">
+        <v>2021020012</v>
+      </c>
+      <c r="D706" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E706" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F706" s="17">
+        <v>756</v>
+      </c>
+      <c r="G706" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H706" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I706" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J706" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K706" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L706" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M706" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N706" s="17"/>
       <c r="O706" s="17"/>
@@ -63848,32 +64315,46 @@
       <c r="A707" s="17">
         <v>768</v>
       </c>
-      <c r="B707" s="17"/>
-      <c r="C707" s="17"/>
-      <c r="D707" s="17"/>
-      <c r="E707" s="17"/>
-      <c r="F707" s="17"/>
-      <c r="G707" s="17"/>
-      <c r="H707" s="17"/>
+      <c r="B707" s="17">
+        <v>18</v>
+      </c>
+      <c r="C707" s="17">
+        <v>2021020013</v>
+      </c>
+      <c r="D707" s="17" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E707" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F707" s="17">
+        <v>756</v>
+      </c>
+      <c r="G707" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H707" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I707" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J707" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K707" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L707" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M707" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N707" s="17"/>
       <c r="O707" s="17"/>
@@ -63884,32 +64365,46 @@
       <c r="A708" s="17">
         <v>769</v>
       </c>
-      <c r="B708" s="17"/>
-      <c r="C708" s="17"/>
-      <c r="D708" s="17"/>
-      <c r="E708" s="17"/>
-      <c r="F708" s="17"/>
-      <c r="G708" s="17"/>
-      <c r="H708" s="17"/>
+      <c r="B708" s="17">
+        <v>19</v>
+      </c>
+      <c r="C708" s="17">
+        <v>2023020002</v>
+      </c>
+      <c r="D708" s="17" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E708" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F708" s="17">
+        <v>720</v>
+      </c>
+      <c r="G708" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H708" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I708" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J708" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="K708" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L708" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="M708" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="N708" s="17"/>
       <c r="O708" s="17"/>
@@ -63920,32 +64415,46 @@
       <c r="A709" s="17">
         <v>770</v>
       </c>
-      <c r="B709" s="17"/>
-      <c r="C709" s="17"/>
-      <c r="D709" s="17"/>
-      <c r="E709" s="17"/>
-      <c r="F709" s="17"/>
-      <c r="G709" s="17"/>
-      <c r="H709" s="17"/>
+      <c r="B709" s="17">
+        <v>20</v>
+      </c>
+      <c r="C709" s="17">
+        <v>2023020003</v>
+      </c>
+      <c r="D709" s="17" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E709" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F709" s="17">
+        <v>750</v>
+      </c>
+      <c r="G709" s="17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H709" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I709" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J709" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="K709" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L709" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-624</v>
       </c>
       <c r="M709" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="N709" s="17"/>
       <c r="O709" s="17"/>
@@ -63956,32 +64465,46 @@
       <c r="A710" s="17">
         <v>771</v>
       </c>
-      <c r="B710" s="17"/>
-      <c r="C710" s="17"/>
-      <c r="D710" s="17"/>
-      <c r="E710" s="17"/>
-      <c r="F710" s="17"/>
-      <c r="G710" s="17"/>
-      <c r="H710" s="17"/>
+      <c r="B710" s="17">
+        <v>21</v>
+      </c>
+      <c r="C710" s="17">
+        <v>2023020005</v>
+      </c>
+      <c r="D710" s="17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E710" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F710" s="17">
+        <v>756</v>
+      </c>
+      <c r="G710" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H710" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I710" s="17">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J710" s="17">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K710" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L710" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M710" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N710" s="17"/>
       <c r="O710" s="17"/>
@@ -63992,32 +64515,46 @@
       <c r="A711" s="17">
         <v>772</v>
       </c>
-      <c r="B711" s="17"/>
-      <c r="C711" s="17"/>
-      <c r="D711" s="17"/>
-      <c r="E711" s="17"/>
-      <c r="F711" s="17"/>
-      <c r="G711" s="17"/>
-      <c r="H711" s="17"/>
+      <c r="B711" s="17">
+        <v>21</v>
+      </c>
+      <c r="C711" s="17">
+        <v>2023020006</v>
+      </c>
+      <c r="D711" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E711" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F711" s="17">
+        <v>756</v>
+      </c>
+      <c r="G711" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H711" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I711" s="17">
         <f t="shared" ref="I711:I753" si="79">IF(TYPE(E711)=1,E711,VALUE(SUBSTITUTE(E711,"天","")))</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J711" s="17">
         <f t="shared" ref="J711:J753" si="80">IF(TYPE(F711)=1,F711,VALUE(SUBSTITUTE(F711,"元","")))</f>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K711" s="17">
         <f t="shared" ref="K711:K753" si="81">I711*6</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L711" s="17">
         <f t="shared" ref="L711:L753" si="82">K711-J711</f>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M711" s="17">
         <f t="shared" ref="M711:M753" si="83">J711</f>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N711" s="17"/>
       <c r="O711" s="17"/>
@@ -64028,32 +64565,46 @@
       <c r="A712" s="17">
         <v>773</v>
       </c>
-      <c r="B712" s="17"/>
-      <c r="C712" s="17"/>
-      <c r="D712" s="17"/>
-      <c r="E712" s="17"/>
-      <c r="F712" s="17"/>
-      <c r="G712" s="17"/>
-      <c r="H712" s="17"/>
+      <c r="B712" s="17">
+        <v>23</v>
+      </c>
+      <c r="C712" s="17">
+        <v>2023020007</v>
+      </c>
+      <c r="D712" s="17" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E712" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F712" s="17">
+        <v>756</v>
+      </c>
+      <c r="G712" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H712" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I712" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J712" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K712" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L712" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M712" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N712" s="17"/>
       <c r="O712" s="17"/>
@@ -64064,32 +64615,46 @@
       <c r="A713" s="17">
         <v>774</v>
       </c>
-      <c r="B713" s="17"/>
-      <c r="C713" s="17"/>
-      <c r="D713" s="17"/>
-      <c r="E713" s="17"/>
-      <c r="F713" s="17"/>
-      <c r="G713" s="17"/>
-      <c r="H713" s="17"/>
+      <c r="B713" s="17">
+        <v>24</v>
+      </c>
+      <c r="C713" s="17">
+        <v>2023020008</v>
+      </c>
+      <c r="D713" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E713" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F713" s="17">
+        <v>690</v>
+      </c>
+      <c r="G713" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H713" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I713" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J713" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="K713" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L713" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="M713" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="N713" s="17"/>
       <c r="O713" s="17"/>
@@ -64100,32 +64665,46 @@
       <c r="A714" s="17">
         <v>775</v>
       </c>
-      <c r="B714" s="17"/>
-      <c r="C714" s="17"/>
-      <c r="D714" s="17"/>
-      <c r="E714" s="17"/>
-      <c r="F714" s="17"/>
-      <c r="G714" s="17"/>
-      <c r="H714" s="17"/>
+      <c r="B714" s="17">
+        <v>25</v>
+      </c>
+      <c r="C714" s="17">
+        <v>2023020009</v>
+      </c>
+      <c r="D714" s="17" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E714" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F714" s="17">
+        <v>600</v>
+      </c>
+      <c r="G714" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H714" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I714" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J714" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K714" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L714" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="M714" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N714" s="17"/>
       <c r="O714" s="17"/>
@@ -64136,32 +64715,46 @@
       <c r="A715" s="17">
         <v>776</v>
       </c>
-      <c r="B715" s="17"/>
-      <c r="C715" s="17"/>
-      <c r="D715" s="17"/>
-      <c r="E715" s="17"/>
-      <c r="F715" s="17"/>
-      <c r="G715" s="17"/>
-      <c r="H715" s="17"/>
+      <c r="B715" s="17">
+        <v>26</v>
+      </c>
+      <c r="C715" s="17">
+        <v>2023020010</v>
+      </c>
+      <c r="D715" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E715" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F715" s="17">
+        <v>756</v>
+      </c>
+      <c r="G715" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H715" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I715" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J715" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K715" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L715" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M715" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N715" s="17"/>
       <c r="O715" s="17"/>
@@ -64172,32 +64765,46 @@
       <c r="A716" s="17">
         <v>777</v>
       </c>
-      <c r="B716" s="17"/>
-      <c r="C716" s="17"/>
-      <c r="D716" s="17"/>
-      <c r="E716" s="17"/>
-      <c r="F716" s="17"/>
-      <c r="G716" s="17"/>
-      <c r="H716" s="17"/>
+      <c r="B716" s="17">
+        <v>27</v>
+      </c>
+      <c r="C716" s="17">
+        <v>2023020013</v>
+      </c>
+      <c r="D716" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E716" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F716" s="17">
+        <v>756</v>
+      </c>
+      <c r="G716" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H716" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I716" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J716" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K716" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L716" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M716" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N716" s="17"/>
       <c r="O716" s="17"/>
@@ -64208,32 +64815,46 @@
       <c r="A717" s="17">
         <v>778</v>
       </c>
-      <c r="B717" s="17"/>
-      <c r="C717" s="17"/>
-      <c r="D717" s="17"/>
-      <c r="E717" s="17"/>
-      <c r="F717" s="17"/>
-      <c r="G717" s="17"/>
-      <c r="H717" s="17"/>
+      <c r="B717" s="17">
+        <v>28</v>
+      </c>
+      <c r="C717" s="17">
+        <v>2023020015</v>
+      </c>
+      <c r="D717" s="17" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E717" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F717" s="17">
+        <v>756</v>
+      </c>
+      <c r="G717" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H717" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I717" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J717" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K717" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L717" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M717" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N717" s="17"/>
       <c r="O717" s="17"/>
@@ -64244,32 +64865,46 @@
       <c r="A718" s="17">
         <v>779</v>
       </c>
-      <c r="B718" s="17"/>
-      <c r="C718" s="17"/>
-      <c r="D718" s="17"/>
-      <c r="E718" s="17"/>
-      <c r="F718" s="17"/>
-      <c r="G718" s="17"/>
-      <c r="H718" s="17"/>
+      <c r="B718" s="17">
+        <v>29</v>
+      </c>
+      <c r="C718" s="17">
+        <v>2023020016</v>
+      </c>
+      <c r="D718" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E718" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F718" s="17">
+        <v>756</v>
+      </c>
+      <c r="G718" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H718" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I718" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J718" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K718" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L718" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M718" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N718" s="17"/>
       <c r="O718" s="17"/>
@@ -64280,32 +64915,46 @@
       <c r="A719" s="17">
         <v>780</v>
       </c>
-      <c r="B719" s="17"/>
-      <c r="C719" s="17"/>
-      <c r="D719" s="17"/>
-      <c r="E719" s="17"/>
-      <c r="F719" s="17"/>
-      <c r="G719" s="17"/>
-      <c r="H719" s="17"/>
+      <c r="B719" s="17">
+        <v>30</v>
+      </c>
+      <c r="C719" s="17">
+        <v>2023020018</v>
+      </c>
+      <c r="D719" s="17" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E719" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F719" s="17">
+        <v>756</v>
+      </c>
+      <c r="G719" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H719" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I719" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J719" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K719" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L719" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M719" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N719" s="17"/>
       <c r="O719" s="17"/>
@@ -64316,32 +64965,46 @@
       <c r="A720" s="17">
         <v>781</v>
       </c>
-      <c r="B720" s="17"/>
-      <c r="C720" s="17"/>
-      <c r="D720" s="17"/>
-      <c r="E720" s="17"/>
-      <c r="F720" s="17"/>
-      <c r="G720" s="17"/>
-      <c r="H720" s="17"/>
+      <c r="B720" s="17">
+        <v>31</v>
+      </c>
+      <c r="C720" s="17">
+        <v>2023020019</v>
+      </c>
+      <c r="D720" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E720" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F720" s="17">
+        <v>756</v>
+      </c>
+      <c r="G720" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H720" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I720" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J720" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K720" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L720" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M720" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N720" s="17"/>
       <c r="O720" s="17"/>
@@ -64352,32 +65015,46 @@
       <c r="A721" s="17">
         <v>782</v>
       </c>
-      <c r="B721" s="17"/>
-      <c r="C721" s="17"/>
-      <c r="D721" s="17"/>
-      <c r="E721" s="17"/>
-      <c r="F721" s="17"/>
-      <c r="G721" s="17"/>
-      <c r="H721" s="17"/>
+      <c r="B721" s="17">
+        <v>32</v>
+      </c>
+      <c r="C721" s="17">
+        <v>2023020020</v>
+      </c>
+      <c r="D721" s="17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E721" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F721" s="17">
+        <v>756</v>
+      </c>
+      <c r="G721" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H721" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I721" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J721" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K721" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L721" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M721" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N721" s="17"/>
       <c r="O721" s="17"/>
@@ -64388,32 +65065,46 @@
       <c r="A722" s="17">
         <v>783</v>
       </c>
-      <c r="B722" s="17"/>
-      <c r="C722" s="17"/>
-      <c r="D722" s="17"/>
-      <c r="E722" s="17"/>
-      <c r="F722" s="17"/>
-      <c r="G722" s="17"/>
-      <c r="H722" s="17"/>
+      <c r="B722" s="17">
+        <v>33</v>
+      </c>
+      <c r="C722" s="17">
+        <v>2023020021</v>
+      </c>
+      <c r="D722" s="17" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E722" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F722" s="17">
+        <v>714</v>
+      </c>
+      <c r="G722" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H722" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I722" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J722" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="K722" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="L722" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="M722" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="N722" s="17"/>
       <c r="O722" s="17"/>
@@ -64424,32 +65115,46 @@
       <c r="A723" s="17">
         <v>784</v>
       </c>
-      <c r="B723" s="17"/>
-      <c r="C723" s="17"/>
-      <c r="D723" s="17"/>
-      <c r="E723" s="17"/>
-      <c r="F723" s="17"/>
-      <c r="G723" s="17"/>
-      <c r="H723" s="17"/>
+      <c r="B723" s="17">
+        <v>34</v>
+      </c>
+      <c r="C723" s="17">
+        <v>2023020023</v>
+      </c>
+      <c r="D723" s="17" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E723" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F723" s="17">
+        <v>756</v>
+      </c>
+      <c r="G723" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H723" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I723" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J723" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K723" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L723" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M723" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N723" s="17"/>
       <c r="O723" s="17"/>
@@ -64460,32 +65165,46 @@
       <c r="A724" s="17">
         <v>785</v>
       </c>
-      <c r="B724" s="17"/>
-      <c r="C724" s="17"/>
-      <c r="D724" s="17"/>
-      <c r="E724" s="17"/>
-      <c r="F724" s="17"/>
-      <c r="G724" s="17"/>
-      <c r="H724" s="17"/>
+      <c r="B724" s="17">
+        <v>35</v>
+      </c>
+      <c r="C724" s="17">
+        <v>2023020025</v>
+      </c>
+      <c r="D724" s="17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E724" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F724" s="17">
+        <v>756</v>
+      </c>
+      <c r="G724" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H724" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I724" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J724" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="K724" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L724" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="M724" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N724" s="17"/>
       <c r="O724" s="17"/>
@@ -64496,32 +65215,46 @@
       <c r="A725" s="17">
         <v>786</v>
       </c>
-      <c r="B725" s="17"/>
-      <c r="C725" s="17"/>
-      <c r="D725" s="17"/>
-      <c r="E725" s="17"/>
-      <c r="F725" s="17"/>
-      <c r="G725" s="17"/>
-      <c r="H725" s="17"/>
+      <c r="B725" s="17">
+        <v>36</v>
+      </c>
+      <c r="C725" s="17">
+        <v>2023020026</v>
+      </c>
+      <c r="D725" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E725" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F725" s="17">
+        <v>690</v>
+      </c>
+      <c r="G725" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H725" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I725" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J725" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="K725" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L725" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="M725" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="N725" s="17"/>
       <c r="O725" s="17"/>
@@ -64532,32 +65265,46 @@
       <c r="A726" s="17">
         <v>787</v>
       </c>
-      <c r="B726" s="17"/>
-      <c r="C726" s="17"/>
-      <c r="D726" s="17"/>
-      <c r="E726" s="17"/>
-      <c r="F726" s="17"/>
-      <c r="G726" s="17"/>
-      <c r="H726" s="17"/>
+      <c r="B726" s="17">
+        <v>37</v>
+      </c>
+      <c r="C726" s="17">
+        <v>2023020027</v>
+      </c>
+      <c r="D726" s="17" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E726" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F726" s="17">
+        <v>690</v>
+      </c>
+      <c r="G726" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H726" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I726" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J726" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="K726" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L726" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-570</v>
       </c>
       <c r="M726" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="N726" s="17"/>
       <c r="O726" s="17"/>
@@ -64568,32 +65315,46 @@
       <c r="A727" s="17">
         <v>788</v>
       </c>
-      <c r="B727" s="17"/>
-      <c r="C727" s="17"/>
-      <c r="D727" s="17"/>
-      <c r="E727" s="17"/>
-      <c r="F727" s="17"/>
-      <c r="G727" s="17"/>
-      <c r="H727" s="17"/>
+      <c r="B727" s="17">
+        <v>38</v>
+      </c>
+      <c r="C727" s="17" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D727" s="17" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E727" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F727" s="17">
+        <v>180</v>
+      </c>
+      <c r="G727" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H727" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I727" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J727" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K727" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L727" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M727" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N727" s="17"/>
       <c r="O727" s="17"/>
@@ -64604,32 +65365,46 @@
       <c r="A728" s="17">
         <v>789</v>
       </c>
-      <c r="B728" s="17"/>
-      <c r="C728" s="17"/>
-      <c r="D728" s="17"/>
-      <c r="E728" s="17"/>
-      <c r="F728" s="17"/>
-      <c r="G728" s="17"/>
-      <c r="H728" s="17"/>
+      <c r="B728" s="17">
+        <v>39</v>
+      </c>
+      <c r="C728" s="17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D728" s="17" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E728" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F728" s="17">
+        <v>168</v>
+      </c>
+      <c r="G728" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H728" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I728" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J728" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K728" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L728" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M728" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N728" s="17"/>
       <c r="O728" s="17"/>
@@ -64640,32 +65415,46 @@
       <c r="A729" s="17">
         <v>790</v>
       </c>
-      <c r="B729" s="17"/>
-      <c r="C729" s="17"/>
-      <c r="D729" s="17"/>
-      <c r="E729" s="17"/>
-      <c r="F729" s="17"/>
-      <c r="G729" s="17"/>
-      <c r="H729" s="17"/>
+      <c r="B729" s="17">
+        <v>40</v>
+      </c>
+      <c r="C729" s="17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D729" s="17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E729" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F729" s="17">
+        <v>168</v>
+      </c>
+      <c r="G729" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H729" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I729" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J729" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K729" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L729" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M729" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N729" s="17"/>
       <c r="O729" s="17"/>
@@ -64676,32 +65465,46 @@
       <c r="A730" s="17">
         <v>791</v>
       </c>
-      <c r="B730" s="17"/>
-      <c r="C730" s="17"/>
-      <c r="D730" s="17"/>
-      <c r="E730" s="17"/>
-      <c r="F730" s="17"/>
-      <c r="G730" s="17"/>
-      <c r="H730" s="17"/>
+      <c r="B730" s="17">
+        <v>41</v>
+      </c>
+      <c r="C730" s="17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D730" s="17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E730" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F730" s="17">
+        <v>168</v>
+      </c>
+      <c r="G730" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H730" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I730" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J730" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K730" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L730" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M730" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N730" s="17"/>
       <c r="O730" s="17"/>
@@ -64712,32 +65515,46 @@
       <c r="A731" s="17">
         <v>792</v>
       </c>
-      <c r="B731" s="17"/>
-      <c r="C731" s="17"/>
-      <c r="D731" s="17"/>
-      <c r="E731" s="17"/>
-      <c r="F731" s="17"/>
-      <c r="G731" s="17"/>
-      <c r="H731" s="17"/>
+      <c r="B731" s="17">
+        <v>42</v>
+      </c>
+      <c r="C731" s="17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D731" s="17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E731" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F731" s="17">
+        <v>180</v>
+      </c>
+      <c r="G731" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H731" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I731" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J731" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K731" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L731" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M731" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N731" s="17"/>
       <c r="O731" s="17"/>
@@ -64748,32 +65565,46 @@
       <c r="A732" s="17">
         <v>793</v>
       </c>
-      <c r="B732" s="17"/>
-      <c r="C732" s="17"/>
-      <c r="D732" s="17"/>
-      <c r="E732" s="17"/>
-      <c r="F732" s="17"/>
-      <c r="G732" s="17"/>
-      <c r="H732" s="17"/>
+      <c r="B732" s="17">
+        <v>43</v>
+      </c>
+      <c r="C732" s="17" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D732" s="17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E732" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F732" s="17">
+        <v>168</v>
+      </c>
+      <c r="G732" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H732" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I732" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J732" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K732" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L732" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M732" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N732" s="17"/>
       <c r="O732" s="17"/>
@@ -64784,32 +65615,46 @@
       <c r="A733" s="17">
         <v>794</v>
       </c>
-      <c r="B733" s="17"/>
-      <c r="C733" s="17"/>
-      <c r="D733" s="17"/>
-      <c r="E733" s="17"/>
-      <c r="F733" s="17"/>
-      <c r="G733" s="17"/>
-      <c r="H733" s="17"/>
+      <c r="B733" s="17">
+        <v>44</v>
+      </c>
+      <c r="C733" s="17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D733" s="17" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E733" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F733" s="17">
+        <v>168</v>
+      </c>
+      <c r="G733" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H733" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I733" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J733" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K733" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L733" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M733" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N733" s="17"/>
       <c r="O733" s="17"/>
@@ -64820,32 +65665,46 @@
       <c r="A734" s="17">
         <v>795</v>
       </c>
-      <c r="B734" s="17"/>
-      <c r="C734" s="17"/>
-      <c r="D734" s="17"/>
-      <c r="E734" s="17"/>
-      <c r="F734" s="17"/>
-      <c r="G734" s="17"/>
-      <c r="H734" s="17"/>
+      <c r="B734" s="17">
+        <v>45</v>
+      </c>
+      <c r="C734" s="17" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D734" s="17" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E734" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F734" s="17">
+        <v>168</v>
+      </c>
+      <c r="G734" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H734" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I734" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J734" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K734" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L734" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M734" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N734" s="17"/>
       <c r="O734" s="17"/>
@@ -64856,32 +65715,46 @@
       <c r="A735" s="17">
         <v>796</v>
       </c>
-      <c r="B735" s="17"/>
-      <c r="C735" s="17"/>
-      <c r="D735" s="17"/>
-      <c r="E735" s="17"/>
-      <c r="F735" s="17"/>
-      <c r="G735" s="17"/>
-      <c r="H735" s="17"/>
+      <c r="B735" s="17">
+        <v>46</v>
+      </c>
+      <c r="C735" s="17" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D735" s="17" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E735" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F735" s="17">
+        <v>180</v>
+      </c>
+      <c r="G735" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H735" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I735" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J735" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K735" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L735" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M735" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N735" s="17"/>
       <c r="O735" s="17"/>
@@ -64892,32 +65765,46 @@
       <c r="A736" s="17">
         <v>797</v>
       </c>
-      <c r="B736" s="17"/>
-      <c r="C736" s="17"/>
-      <c r="D736" s="17"/>
-      <c r="E736" s="17"/>
-      <c r="F736" s="17"/>
-      <c r="G736" s="17"/>
-      <c r="H736" s="17"/>
+      <c r="B736" s="17">
+        <v>47</v>
+      </c>
+      <c r="C736" s="17" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D736" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E736" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F736" s="17">
+        <v>180</v>
+      </c>
+      <c r="G736" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H736" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I736" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J736" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K736" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L736" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M736" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N736" s="17"/>
       <c r="O736" s="17"/>
@@ -64928,32 +65815,46 @@
       <c r="A737" s="17">
         <v>798</v>
       </c>
-      <c r="B737" s="17"/>
-      <c r="C737" s="17"/>
-      <c r="D737" s="17"/>
-      <c r="E737" s="17"/>
-      <c r="F737" s="17"/>
-      <c r="G737" s="17"/>
-      <c r="H737" s="17"/>
+      <c r="B737" s="17">
+        <v>48</v>
+      </c>
+      <c r="C737" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D737" s="17" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E737" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F737" s="17">
+        <v>168</v>
+      </c>
+      <c r="G737" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H737" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I737" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J737" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K737" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L737" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M737" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N737" s="17"/>
       <c r="O737" s="17"/>
@@ -64964,32 +65865,46 @@
       <c r="A738" s="17">
         <v>799</v>
       </c>
-      <c r="B738" s="17"/>
-      <c r="C738" s="17"/>
-      <c r="D738" s="17"/>
-      <c r="E738" s="17"/>
-      <c r="F738" s="17"/>
-      <c r="G738" s="17"/>
-      <c r="H738" s="17"/>
+      <c r="B738" s="17">
+        <v>49</v>
+      </c>
+      <c r="C738" s="17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D738" s="17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E738" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F738" s="17">
+        <v>168</v>
+      </c>
+      <c r="G738" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H738" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I738" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J738" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K738" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L738" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M738" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N738" s="17"/>
       <c r="O738" s="17"/>
@@ -65000,32 +65915,46 @@
       <c r="A739" s="17">
         <v>800</v>
       </c>
-      <c r="B739" s="17"/>
-      <c r="C739" s="17"/>
-      <c r="D739" s="17"/>
-      <c r="E739" s="17"/>
-      <c r="F739" s="17"/>
-      <c r="G739" s="17"/>
-      <c r="H739" s="17"/>
+      <c r="B739" s="17">
+        <v>50</v>
+      </c>
+      <c r="C739" s="17" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D739" s="17" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E739" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F739" s="17">
+        <v>168</v>
+      </c>
+      <c r="G739" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H739" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I739" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J739" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K739" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L739" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M739" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N739" s="17"/>
       <c r="O739" s="17"/>
@@ -65036,32 +65965,46 @@
       <c r="A740" s="17">
         <v>801</v>
       </c>
-      <c r="B740" s="17"/>
-      <c r="C740" s="17"/>
-      <c r="D740" s="17"/>
-      <c r="E740" s="17"/>
-      <c r="F740" s="17"/>
-      <c r="G740" s="17"/>
-      <c r="H740" s="17"/>
+      <c r="B740" s="17">
+        <v>51</v>
+      </c>
+      <c r="C740" s="17" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D740" s="17" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E740" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F740" s="17">
+        <v>168</v>
+      </c>
+      <c r="G740" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H740" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I740" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J740" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K740" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L740" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M740" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N740" s="17"/>
       <c r="O740" s="17"/>
@@ -65072,32 +66015,46 @@
       <c r="A741" s="17">
         <v>802</v>
       </c>
-      <c r="B741" s="17"/>
-      <c r="C741" s="17"/>
-      <c r="D741" s="17"/>
-      <c r="E741" s="17"/>
-      <c r="F741" s="17"/>
-      <c r="G741" s="17"/>
-      <c r="H741" s="17"/>
+      <c r="B741" s="17">
+        <v>52</v>
+      </c>
+      <c r="C741" s="17" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D741" s="17" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E741" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F741" s="17">
+        <v>180</v>
+      </c>
+      <c r="G741" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H741" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I741" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J741" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K741" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L741" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M741" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N741" s="17"/>
       <c r="O741" s="17"/>
@@ -65108,32 +66065,46 @@
       <c r="A742" s="17">
         <v>803</v>
       </c>
-      <c r="B742" s="17"/>
-      <c r="C742" s="17"/>
-      <c r="D742" s="17"/>
-      <c r="E742" s="17"/>
-      <c r="F742" s="17"/>
-      <c r="G742" s="17"/>
-      <c r="H742" s="17"/>
+      <c r="B742" s="17">
+        <v>53</v>
+      </c>
+      <c r="C742" s="17" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D742" s="17" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E742" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F742" s="17">
+        <v>180</v>
+      </c>
+      <c r="G742" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H742" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I742" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J742" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K742" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L742" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M742" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N742" s="17"/>
       <c r="O742" s="17"/>
@@ -65144,32 +66115,46 @@
       <c r="A743" s="17">
         <v>804</v>
       </c>
-      <c r="B743" s="17"/>
-      <c r="C743" s="17"/>
-      <c r="D743" s="17"/>
-      <c r="E743" s="17"/>
-      <c r="F743" s="17"/>
-      <c r="G743" s="17"/>
-      <c r="H743" s="17"/>
+      <c r="B743" s="17">
+        <v>54</v>
+      </c>
+      <c r="C743" s="17" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D743" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E743" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F743" s="17">
+        <v>168</v>
+      </c>
+      <c r="G743" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H743" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I743" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J743" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K743" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L743" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M743" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N743" s="17"/>
       <c r="O743" s="17"/>
@@ -65180,32 +66165,46 @@
       <c r="A744" s="17">
         <v>805</v>
       </c>
-      <c r="B744" s="17"/>
-      <c r="C744" s="17"/>
-      <c r="D744" s="17"/>
-      <c r="E744" s="17"/>
-      <c r="F744" s="17"/>
-      <c r="G744" s="17"/>
-      <c r="H744" s="17"/>
+      <c r="B744" s="17">
+        <v>55</v>
+      </c>
+      <c r="C744" s="17" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D744" s="17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E744" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F744" s="17">
+        <v>168</v>
+      </c>
+      <c r="G744" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H744" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I744" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J744" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K744" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L744" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M744" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N744" s="17"/>
       <c r="O744" s="17"/>
@@ -65216,32 +66215,46 @@
       <c r="A745" s="17">
         <v>806</v>
       </c>
-      <c r="B745" s="17"/>
-      <c r="C745" s="17"/>
-      <c r="D745" s="17"/>
-      <c r="E745" s="17"/>
-      <c r="F745" s="17"/>
-      <c r="G745" s="17"/>
-      <c r="H745" s="17"/>
+      <c r="B745" s="17">
+        <v>56</v>
+      </c>
+      <c r="C745" s="17" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D745" s="17" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E745" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F745" s="17">
+        <v>180</v>
+      </c>
+      <c r="G745" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H745" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I745" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J745" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K745" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L745" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M745" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N745" s="17"/>
       <c r="O745" s="17"/>
@@ -65252,32 +66265,46 @@
       <c r="A746" s="17">
         <v>807</v>
       </c>
-      <c r="B746" s="17"/>
-      <c r="C746" s="17"/>
-      <c r="D746" s="17"/>
-      <c r="E746" s="17"/>
-      <c r="F746" s="17"/>
-      <c r="G746" s="17"/>
-      <c r="H746" s="17"/>
+      <c r="B746" s="17">
+        <v>57</v>
+      </c>
+      <c r="C746" s="17" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D746" s="17" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E746" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F746" s="17">
+        <v>168</v>
+      </c>
+      <c r="G746" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H746" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I746" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J746" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K746" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L746" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M746" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N746" s="17"/>
       <c r="O746" s="17"/>
@@ -65288,32 +66315,46 @@
       <c r="A747" s="17">
         <v>808</v>
       </c>
-      <c r="B747" s="17"/>
-      <c r="C747" s="17"/>
-      <c r="D747" s="17"/>
-      <c r="E747" s="17"/>
-      <c r="F747" s="17"/>
-      <c r="G747" s="17"/>
-      <c r="H747" s="17"/>
+      <c r="B747" s="17">
+        <v>58</v>
+      </c>
+      <c r="C747" s="17" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D747" s="17" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E747" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F747" s="17">
+        <v>168</v>
+      </c>
+      <c r="G747" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H747" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I747" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J747" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K747" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L747" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M747" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N747" s="17"/>
       <c r="O747" s="17"/>
@@ -65324,32 +66365,46 @@
       <c r="A748" s="17">
         <v>809</v>
       </c>
-      <c r="B748" s="17"/>
-      <c r="C748" s="17"/>
-      <c r="D748" s="17"/>
-      <c r="E748" s="17"/>
-      <c r="F748" s="17"/>
-      <c r="G748" s="17"/>
-      <c r="H748" s="17"/>
+      <c r="B748" s="17">
+        <v>59</v>
+      </c>
+      <c r="C748" s="17" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D748" s="17" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E748" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F748" s="17">
+        <v>168</v>
+      </c>
+      <c r="G748" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H748" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I748" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J748" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K748" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L748" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M748" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N748" s="17"/>
       <c r="O748" s="17"/>
@@ -65360,32 +66415,46 @@
       <c r="A749" s="17">
         <v>810</v>
       </c>
-      <c r="B749" s="17"/>
-      <c r="C749" s="17"/>
-      <c r="D749" s="17"/>
-      <c r="E749" s="17"/>
-      <c r="F749" s="17"/>
-      <c r="G749" s="17"/>
-      <c r="H749" s="17"/>
+      <c r="B749" s="17">
+        <v>60</v>
+      </c>
+      <c r="C749" s="17" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D749" s="17" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E749" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F749" s="17">
+        <v>168</v>
+      </c>
+      <c r="G749" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H749" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I749" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J749" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K749" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L749" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M749" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N749" s="17"/>
       <c r="O749" s="17"/>
@@ -65396,32 +66465,46 @@
       <c r="A750" s="17">
         <v>811</v>
       </c>
-      <c r="B750" s="17"/>
-      <c r="C750" s="17"/>
-      <c r="D750" s="17"/>
-      <c r="E750" s="17"/>
-      <c r="F750" s="17"/>
-      <c r="G750" s="17"/>
-      <c r="H750" s="17"/>
+      <c r="B750" s="17">
+        <v>61</v>
+      </c>
+      <c r="C750" s="17" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D750" s="17" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E750" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F750" s="17">
+        <v>180</v>
+      </c>
+      <c r="G750" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H750" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I750" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J750" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K750" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L750" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M750" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N750" s="17"/>
       <c r="O750" s="17"/>
@@ -65432,32 +66515,46 @@
       <c r="A751" s="17">
         <v>812</v>
       </c>
-      <c r="B751" s="17"/>
-      <c r="C751" s="17"/>
-      <c r="D751" s="17"/>
-      <c r="E751" s="17"/>
-      <c r="F751" s="17"/>
-      <c r="G751" s="17"/>
-      <c r="H751" s="17"/>
+      <c r="B751" s="17">
+        <v>62</v>
+      </c>
+      <c r="C751" s="17" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D751" s="17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E751" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F751" s="17">
+        <v>168</v>
+      </c>
+      <c r="G751" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H751" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I751" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J751" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K751" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L751" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M751" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N751" s="17"/>
       <c r="O751" s="17"/>
@@ -65468,32 +66565,46 @@
       <c r="A752" s="17">
         <v>813</v>
       </c>
-      <c r="B752" s="17"/>
-      <c r="C752" s="17"/>
-      <c r="D752" s="17"/>
-      <c r="E752" s="17"/>
-      <c r="F752" s="17"/>
-      <c r="G752" s="17"/>
-      <c r="H752" s="17"/>
+      <c r="B752" s="17">
+        <v>63</v>
+      </c>
+      <c r="C752" s="17" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D752" s="17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E752" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F752" s="17">
+        <v>168</v>
+      </c>
+      <c r="G752" s="17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H752" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I752" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J752" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K752" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L752" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M752" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N752" s="17"/>
       <c r="O752" s="17"/>
@@ -65504,32 +66615,46 @@
       <c r="A753" s="17">
         <v>814</v>
       </c>
-      <c r="B753" s="17"/>
-      <c r="C753" s="17"/>
-      <c r="D753" s="17"/>
-      <c r="E753" s="17"/>
-      <c r="F753" s="17"/>
-      <c r="G753" s="17"/>
-      <c r="H753" s="17"/>
+      <c r="B753" s="17">
+        <v>64</v>
+      </c>
+      <c r="C753" s="17" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D753" s="17" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E753" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F753" s="17">
+        <v>180</v>
+      </c>
+      <c r="G753" s="17" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H753" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I753" s="17">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J753" s="17">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K753" s="17">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L753" s="17">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M753" s="17">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N753" s="17"/>
       <c r="O753" s="17"/>
@@ -65540,26 +66665,46 @@
       <c r="A754" s="17">
         <v>815</v>
       </c>
-      <c r="H754" s="17"/>
+      <c r="B754">
+        <v>65</v>
+      </c>
+      <c r="C754" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F754">
+        <v>168</v>
+      </c>
+      <c r="G754" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H754" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I754" s="17">
         <f t="shared" ref="I754:I777" si="84">IF(TYPE(E754)=1,E754,VALUE(SUBSTITUTE(E754,"天","")))</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J754" s="17">
         <f t="shared" ref="J754:J777" si="85">IF(TYPE(F754)=1,F754,VALUE(SUBSTITUTE(F754,"元","")))</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K754" s="17">
         <f t="shared" ref="K754:K777" si="86">I754*6</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L754" s="17">
         <f t="shared" ref="L754:L777" si="87">K754-J754</f>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M754" s="17">
         <f t="shared" ref="M754:M777" si="88">J754</f>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N754" s="17"/>
       <c r="O754" s="17"/>
@@ -65570,26 +66715,46 @@
       <c r="A755" s="17">
         <v>816</v>
       </c>
-      <c r="H755" s="17"/>
+      <c r="B755">
+        <v>66</v>
+      </c>
+      <c r="C755" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F755">
+        <v>168</v>
+      </c>
+      <c r="G755" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H755" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I755" s="17">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J755" s="17">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="K755" s="17">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L755" s="17">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="M755" s="17">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N755" s="17"/>
       <c r="O755" s="17"/>
@@ -65600,26 +66765,46 @@
       <c r="A756" s="17">
         <v>817</v>
       </c>
-      <c r="H756" s="17"/>
+      <c r="B756">
+        <v>67</v>
+      </c>
+      <c r="C756" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F756">
+        <v>180</v>
+      </c>
+      <c r="G756" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H756" s="17" t="s">
+        <v>1179</v>
+      </c>
       <c r="I756" s="17">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J756" s="17">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K756" s="17">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="L756" s="17">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="M756" s="17">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N756" s="17"/>
       <c r="O756" s="17"/>
@@ -66260,7 +67445,7 @@
   <autoFilter ref="A1:Q753" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L2:L777">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
